--- a/game-manage/src/main/resources/biz_config/Q_duicuo.xlsx
+++ b/game-manage/src/main/resources/biz_config/Q_duicuo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5B13A-6318-214F-B0B5-F89D4B38F7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="CY1" authorId="0" shapeId="0">
+    <comment ref="CY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -411,8 +412,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,15 +719,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,6 +747,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3007,29 +3008,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CY40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DC14" sqref="DC14"/>
+      <selection activeCell="A18" sqref="A18:BH36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.375" style="1" customWidth="1"/>
-    <col min="4" max="12" width="2.375" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="2.33203125" style="1"/>
     <col min="13" max="22" width="2.5" style="1" customWidth="1"/>
-    <col min="23" max="28" width="2.375" style="1"/>
-    <col min="29" max="29" width="2.375" style="1" customWidth="1"/>
-    <col min="30" max="101" width="2.375" style="1"/>
-    <col min="102" max="102" width="3.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="2.625" style="1" customWidth="1"/>
-    <col min="104" max="16384" width="2.375" style="1"/>
+    <col min="23" max="28" width="2.33203125" style="1"/>
+    <col min="29" max="29" width="2.33203125" style="1" customWidth="1"/>
+    <col min="30" max="101" width="2.33203125" style="1"/>
+    <col min="102" max="102" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="2.6640625" style="1" customWidth="1"/>
+    <col min="104" max="16384" width="2.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" ht="13" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="14" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="14" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="14" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="14" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="14" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -3930,7 +3931,7 @@
       <c r="U6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="15"/>
+      <c r="V6" s="12"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
@@ -3942,7 +3943,7 @@
       <c r="AE6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AF6" s="15"/>
+      <c r="AF6" s="12"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
@@ -3954,7 +3955,7 @@
       <c r="AO6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AP6" s="15"/>
+      <c r="AP6" s="12"/>
       <c r="AQ6" s="5"/>
       <c r="AR6" s="11" t="s">
         <v>9</v>
@@ -3976,7 +3977,7 @@
       <c r="AY6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AZ6" s="15"/>
+      <c r="AZ6" s="12"/>
       <c r="BA6" s="5"/>
       <c r="BB6" s="11" t="s">
         <v>10</v>
@@ -3988,7 +3989,7 @@
       <c r="BG6" s="5"/>
       <c r="BH6" s="5"/>
       <c r="BI6" s="5"/>
-      <c r="BJ6" s="15"/>
+      <c r="BJ6" s="12"/>
       <c r="BK6" s="5"/>
       <c r="BL6" s="11" t="s">
         <v>11</v>
@@ -4000,7 +4001,7 @@
       <c r="BQ6" s="5"/>
       <c r="BR6" s="5"/>
       <c r="BS6" s="5"/>
-      <c r="BT6" s="15"/>
+      <c r="BT6" s="12"/>
       <c r="BU6" s="5"/>
       <c r="BV6" s="11" t="s">
         <v>12</v>
@@ -4020,7 +4021,7 @@
       <c r="CC6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="CD6" s="15"/>
+      <c r="CD6" s="12"/>
       <c r="CE6" s="2"/>
       <c r="CF6" s="3"/>
       <c r="CG6" s="3"/>
@@ -4045,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" ht="14" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
@@ -4081,7 +4082,7 @@
       <c r="U7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="15"/>
+      <c r="V7" s="12"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
@@ -4093,7 +4094,7 @@
       <c r="AE7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AF7" s="15"/>
+      <c r="AF7" s="12"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -4105,7 +4106,7 @@
       <c r="AO7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AP7" s="15"/>
+      <c r="AP7" s="12"/>
       <c r="AQ7" s="5"/>
       <c r="AR7" s="11" t="s">
         <v>9</v>
@@ -4127,7 +4128,7 @@
       <c r="AY7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AZ7" s="15"/>
+      <c r="AZ7" s="12"/>
       <c r="BA7" s="5"/>
       <c r="BB7" s="11" t="s">
         <v>10</v>
@@ -4139,7 +4140,7 @@
       <c r="BG7" s="5"/>
       <c r="BH7" s="5"/>
       <c r="BI7" s="5"/>
-      <c r="BJ7" s="15"/>
+      <c r="BJ7" s="12"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="11" t="s">
         <v>11</v>
@@ -4151,7 +4152,7 @@
       <c r="BQ7" s="5"/>
       <c r="BR7" s="5"/>
       <c r="BS7" s="5"/>
-      <c r="BT7" s="15"/>
+      <c r="BT7" s="12"/>
       <c r="BU7" s="5"/>
       <c r="BV7" s="11" t="s">
         <v>12</v>
@@ -4171,7 +4172,7 @@
       <c r="CC7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="CD7" s="15"/>
+      <c r="CD7" s="12"/>
       <c r="CE7" s="2"/>
       <c r="CF7" s="3"/>
       <c r="CG7" s="3"/>
@@ -4196,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" ht="14" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
@@ -4382,12 +4383,12 @@
       <c r="CU8" s="5"/>
       <c r="CV8" s="5"/>
       <c r="CW8" s="5"/>
-      <c r="CX8" s="15"/>
+      <c r="CX8" s="12"/>
       <c r="CY8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" ht="14" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -4555,7 +4556,7 @@
       <c r="CK9" s="5"/>
       <c r="CL9" s="5"/>
       <c r="CM9" s="5"/>
-      <c r="CN9" s="15"/>
+      <c r="CN9" s="12"/>
       <c r="CO9" s="5"/>
       <c r="CP9" s="5"/>
       <c r="CQ9" s="5"/>
@@ -4578,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" ht="14" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
@@ -4764,12 +4765,12 @@
       <c r="CW10" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="CX10" s="15"/>
+      <c r="CX10" s="12"/>
       <c r="CY10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" ht="13" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -4878,7 +4879,7 @@
       <c r="CX11" s="4"/>
       <c r="CY11" s="9"/>
     </row>
-    <row r="12" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" ht="13" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -4987,7 +4988,7 @@
       <c r="CX12" s="4"/>
       <c r="CY12" s="9"/>
     </row>
-    <row r="13" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" ht="13" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>108</v>
       </c>
@@ -5096,7 +5097,7 @@
       <c r="CX13" s="4"/>
       <c r="CY13" s="9"/>
     </row>
-    <row r="14" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" ht="13" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
@@ -5205,7 +5206,7 @@
       <c r="CX14" s="4"/>
       <c r="CY14" s="9"/>
     </row>
-    <row r="15" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="13" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>110</v>
       </c>
@@ -5314,7 +5315,7 @@
       <c r="CX15" s="4"/>
       <c r="CY15" s="9"/>
     </row>
-    <row r="16" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" ht="13" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
@@ -5423,7 +5424,7 @@
       <c r="CX16" s="4"/>
       <c r="CY16" s="9"/>
     </row>
-    <row r="17" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" ht="13" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
@@ -5532,81 +5533,79 @@
       <c r="CX17" s="4"/>
       <c r="CY17" s="9"/>
     </row>
-    <row r="20" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R21" s="17"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="19"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="19"/>
-      <c r="AU21" s="17"/>
-      <c r="AV21" s="18"/>
-      <c r="AW21" s="18"/>
-      <c r="AX21" s="18"/>
-      <c r="AY21" s="18"/>
-      <c r="AZ21" s="18"/>
-      <c r="BA21" s="18"/>
-      <c r="BB21" s="18"/>
-      <c r="BC21" s="18"/>
-      <c r="BD21" s="18"/>
-      <c r="BE21" s="19"/>
+    <row r="20" spans="1:103" ht="13" thickBot="1"/>
+    <row r="21" spans="1:103" ht="13" thickBot="1">
+      <c r="R21" s="14"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="16"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="16"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="16"/>
     </row>
-    <row r="22" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R22" s="20"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="21"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="14"/>
-      <c r="AQ22" s="21"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="16"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="14"/>
-      <c r="BE22" s="21"/>
+    <row r="22" spans="1:103" ht="13" thickBot="1">
+      <c r="R22" s="17"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="18"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="18"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23"/>
+      <c r="BC22" s="23"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="18"/>
     </row>
-    <row r="23" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R23" s="20">
-        <v>1</v>
-      </c>
+    <row r="23" spans="1:103" ht="13" thickBot="1">
+      <c r="R23" s="17"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -5616,10 +5615,8 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="15"/>
-      <c r="AG23" s="20">
-        <v>1</v>
-      </c>
+      <c r="AB23" s="12"/>
+      <c r="AG23" s="17"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
@@ -5629,10 +5626,8 @@
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="15"/>
-      <c r="AU23" s="20">
-        <v>1</v>
-      </c>
+      <c r="AQ23" s="12"/>
+      <c r="AU23" s="17"/>
       <c r="AV23" s="5"/>
       <c r="AW23" s="5"/>
       <c r="AX23" s="5"/>
@@ -5642,12 +5637,10 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="5"/>
-      <c r="BE23" s="15"/>
+      <c r="BE23" s="12"/>
     </row>
-    <row r="24" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R24" s="20">
-        <v>2</v>
-      </c>
+    <row r="24" spans="1:103" ht="13" thickBot="1">
+      <c r="R24" s="17"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -5657,10 +5650,8 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="15"/>
-      <c r="AG24" s="20">
-        <v>2</v>
-      </c>
+      <c r="AB24" s="12"/>
+      <c r="AG24" s="17"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
@@ -5670,10 +5661,8 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="15"/>
-      <c r="AU24" s="20">
-        <v>2</v>
-      </c>
+      <c r="AQ24" s="12"/>
+      <c r="AU24" s="17"/>
       <c r="AV24" s="5"/>
       <c r="AW24" s="5"/>
       <c r="AX24" s="5"/>
@@ -5683,12 +5672,10 @@
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="5"/>
-      <c r="BE24" s="15"/>
+      <c r="BE24" s="12"/>
     </row>
-    <row r="25" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R25" s="20">
-        <v>3</v>
-      </c>
+    <row r="25" spans="1:103" ht="13" thickBot="1">
+      <c r="R25" s="17"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -5698,10 +5685,8 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="15"/>
-      <c r="AG25" s="20">
-        <v>3</v>
-      </c>
+      <c r="AB25" s="12"/>
+      <c r="AG25" s="17"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
@@ -5711,10 +5696,8 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="15"/>
-      <c r="AU25" s="20">
-        <v>3</v>
-      </c>
+      <c r="AQ25" s="12"/>
+      <c r="AU25" s="17"/>
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
@@ -5724,12 +5707,10 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="5"/>
-      <c r="BE25" s="15"/>
+      <c r="BE25" s="12"/>
     </row>
-    <row r="26" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R26" s="20">
-        <v>4</v>
-      </c>
+    <row r="26" spans="1:103" ht="13" thickBot="1">
+      <c r="R26" s="17"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -5739,10 +5720,8 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="15"/>
-      <c r="AG26" s="20">
-        <v>4</v>
-      </c>
+      <c r="AB26" s="12"/>
+      <c r="AG26" s="17"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
@@ -5752,10 +5731,8 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="15"/>
-      <c r="AU26" s="20">
-        <v>4</v>
-      </c>
+      <c r="AQ26" s="12"/>
+      <c r="AU26" s="17"/>
       <c r="AV26" s="5"/>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
@@ -5765,12 +5742,10 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="5"/>
-      <c r="BE26" s="15"/>
+      <c r="BE26" s="12"/>
     </row>
-    <row r="27" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R27" s="20">
-        <v>5</v>
-      </c>
+    <row r="27" spans="1:103" ht="13" thickBot="1">
+      <c r="R27" s="17"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -5780,10 +5755,8 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="15"/>
-      <c r="AG27" s="20">
-        <v>5</v>
-      </c>
+      <c r="AB27" s="12"/>
+      <c r="AG27" s="17"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
@@ -5793,10 +5766,8 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="15"/>
-      <c r="AU27" s="20">
-        <v>5</v>
-      </c>
+      <c r="AQ27" s="12"/>
+      <c r="AU27" s="17"/>
       <c r="AV27" s="5"/>
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
@@ -5806,12 +5777,10 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="5"/>
-      <c r="BE27" s="15"/>
+      <c r="BE27" s="12"/>
     </row>
-    <row r="28" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R28" s="20">
-        <v>6</v>
-      </c>
+    <row r="28" spans="1:103" ht="13" thickBot="1">
+      <c r="R28" s="17"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -5821,10 +5790,8 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="15"/>
-      <c r="AG28" s="20">
-        <v>6</v>
-      </c>
+      <c r="AB28" s="12"/>
+      <c r="AG28" s="17"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
@@ -5834,10 +5801,8 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="15"/>
-      <c r="AU28" s="20">
-        <v>6</v>
-      </c>
+      <c r="AQ28" s="12"/>
+      <c r="AU28" s="17"/>
       <c r="AV28" s="5"/>
       <c r="AW28" s="5"/>
       <c r="AX28" s="5"/>
@@ -5847,12 +5812,10 @@
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="5"/>
-      <c r="BE28" s="15"/>
+      <c r="BE28" s="12"/>
     </row>
-    <row r="29" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R29" s="20">
-        <v>7</v>
-      </c>
+    <row r="29" spans="1:103" ht="13" thickBot="1">
+      <c r="R29" s="17"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -5862,10 +5825,8 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="15"/>
-      <c r="AG29" s="20">
-        <v>7</v>
-      </c>
+      <c r="AB29" s="12"/>
+      <c r="AG29" s="17"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
@@ -5875,10 +5836,8 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="15"/>
-      <c r="AU29" s="20">
-        <v>7</v>
-      </c>
+      <c r="AQ29" s="12"/>
+      <c r="AU29" s="17"/>
       <c r="AV29" s="5"/>
       <c r="AW29" s="5"/>
       <c r="AX29" s="5"/>
@@ -5888,12 +5847,10 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="5"/>
-      <c r="BE29" s="15"/>
+      <c r="BE29" s="12"/>
     </row>
-    <row r="30" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R30" s="20">
-        <v>8</v>
-      </c>
+    <row r="30" spans="1:103" ht="13" thickBot="1">
+      <c r="R30" s="17"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -5903,10 +5860,8 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-      <c r="AB30" s="15"/>
-      <c r="AG30" s="20">
-        <v>8</v>
-      </c>
+      <c r="AB30" s="12"/>
+      <c r="AG30" s="17"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
@@ -5916,10 +5871,8 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="15"/>
-      <c r="AU30" s="20">
-        <v>8</v>
-      </c>
+      <c r="AQ30" s="12"/>
+      <c r="AU30" s="17"/>
       <c r="AV30" s="5"/>
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
@@ -5929,12 +5882,10 @@
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="5"/>
-      <c r="BE30" s="15"/>
+      <c r="BE30" s="12"/>
     </row>
-    <row r="31" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R31" s="20">
-        <v>9</v>
-      </c>
+    <row r="31" spans="1:103" ht="13" thickBot="1">
+      <c r="R31" s="17"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -5944,10 +5895,8 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
-      <c r="AB31" s="15"/>
-      <c r="AG31" s="20">
-        <v>9</v>
-      </c>
+      <c r="AB31" s="12"/>
+      <c r="AG31" s="17"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
@@ -5957,10 +5906,8 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="15"/>
-      <c r="AU31" s="20">
-        <v>9</v>
-      </c>
+      <c r="AQ31" s="12"/>
+      <c r="AU31" s="17"/>
       <c r="AV31" s="5"/>
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
@@ -5970,12 +5917,10 @@
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="5"/>
-      <c r="BE31" s="15"/>
+      <c r="BE31" s="12"/>
     </row>
-    <row r="32" spans="1:103" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R32" s="20">
-        <v>10</v>
-      </c>
+    <row r="32" spans="1:103" ht="13" thickBot="1">
+      <c r="R32" s="17"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -5985,10 +5930,8 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="15"/>
-      <c r="AG32" s="20">
-        <v>10</v>
-      </c>
+      <c r="AB32" s="12"/>
+      <c r="AG32" s="17"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
@@ -5998,10 +5941,8 @@
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="15"/>
-      <c r="AU32" s="20">
-        <v>10</v>
-      </c>
+      <c r="AQ32" s="12"/>
+      <c r="AU32" s="17"/>
       <c r="AV32" s="5"/>
       <c r="AW32" s="5"/>
       <c r="AX32" s="5"/>
@@ -6011,79 +5952,79 @@
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="5"/>
-      <c r="BE32" s="15"/>
+      <c r="BE32" s="12"/>
     </row>
-    <row r="33" spans="18:60" x14ac:dyDescent="0.2">
-      <c r="R33" s="20"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="21"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="16"/>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="21"/>
-      <c r="AU33" s="20"/>
-      <c r="AV33" s="16"/>
-      <c r="AW33" s="16"/>
-      <c r="AX33" s="16"/>
-      <c r="AY33" s="16"/>
-      <c r="AZ33" s="16"/>
-      <c r="BA33" s="16"/>
-      <c r="BB33" s="16"/>
-      <c r="BC33" s="16"/>
-      <c r="BD33" s="16"/>
-      <c r="BE33" s="21"/>
+    <row r="33" spans="18:60">
+      <c r="R33" s="17"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="18"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="18"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="13"/>
+      <c r="AW33" s="13"/>
+      <c r="AX33" s="13"/>
+      <c r="AY33" s="13"/>
+      <c r="AZ33" s="13"/>
+      <c r="BA33" s="13"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="13"/>
+      <c r="BD33" s="13"/>
+      <c r="BE33" s="18"/>
     </row>
-    <row r="34" spans="18:60" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R34" s="22"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="24"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23"/>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23"/>
-      <c r="AQ34" s="24"/>
-      <c r="AU34" s="22"/>
-      <c r="AV34" s="23"/>
-      <c r="AW34" s="23"/>
-      <c r="AX34" s="23"/>
-      <c r="AY34" s="23"/>
-      <c r="AZ34" s="23"/>
-      <c r="BA34" s="23"/>
-      <c r="BB34" s="23"/>
-      <c r="BC34" s="23"/>
-      <c r="BD34" s="23"/>
-      <c r="BE34" s="24"/>
+    <row r="34" spans="18:60" ht="13" thickBot="1">
+      <c r="R34" s="19"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="21"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="20"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="21"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="20"/>
+      <c r="AW34" s="20"/>
+      <c r="AX34" s="20"/>
+      <c r="AY34" s="20"/>
+      <c r="AZ34" s="20"/>
+      <c r="BA34" s="20"/>
+      <c r="BB34" s="20"/>
+      <c r="BC34" s="20"/>
+      <c r="BD34" s="20"/>
+      <c r="BE34" s="21"/>
     </row>
-    <row r="40" spans="18:60" x14ac:dyDescent="0.2">
+    <row r="40" spans="18:60">
       <c r="BH40" s="10"/>
     </row>
   </sheetData>
